--- a/Project3392_A. P. Dornellas(2020).xlsx
+++ b/Project3392_A. P. Dornellas(2020).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remi/Desktop/Finished &amp; Uploaded copy 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjg18\GitHub\neotrans\matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE6E5BA-8486-1D4C-A2CB-5974BE8B6871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B6BAE9-36C3-42B1-876D-3E40D5D95754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{77F1F6C2-35A7-D941-8ED6-BBEDF1D994A1}"/>
+    <workbookView xWindow="16455" yWindow="1560" windowWidth="15945" windowHeight="18375" xr2:uid="{77F1F6C2-35A7-D941-8ED6-BBEDF1D994A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Project3392" sheetId="1" r:id="rId1"/>
@@ -532,55 +532,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>42333</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>42334</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>776111</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>28223</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC2166AF-069E-382D-B208-3C72774F3335}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10526889" y="324556"/>
-          <a:ext cx="10724444" cy="6702778"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -902,17 +853,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D0014A-5D19-9042-B4C9-4EE58EB2FBC0}">
   <dimension ref="A1:C133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.33203125" customWidth="1"/>
-    <col min="2" max="3" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="83.375" customWidth="1"/>
+    <col min="2" max="3" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -923,7 +872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>134</v>
       </c>
@@ -934,7 +883,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -945,7 +894,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -956,7 +905,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -967,7 +916,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -978,7 +927,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -989,7 +938,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1000,7 +949,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1011,7 +960,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1022,7 +971,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1033,7 +982,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1044,7 +993,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1055,7 +1004,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1066,7 +1015,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1077,7 +1026,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1088,7 +1037,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1099,7 +1048,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1110,7 +1059,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1121,7 +1070,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1132,7 +1081,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1143,7 +1092,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1154,7 +1103,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1165,7 +1114,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1176,7 +1125,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1187,7 +1136,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1198,7 +1147,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1209,7 +1158,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1220,7 +1169,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1231,7 +1180,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1242,7 +1191,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1253,7 +1202,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1261,7 +1210,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1272,7 +1221,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1283,7 +1232,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1294,7 +1243,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1305,7 +1254,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1316,7 +1265,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1327,7 +1276,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1338,7 +1287,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1349,7 +1298,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1360,7 +1309,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1371,7 +1320,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1382,7 +1331,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1393,7 +1342,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1404,7 +1353,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -1415,7 +1364,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -1426,7 +1375,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1437,7 +1386,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -1448,7 +1397,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1459,7 +1408,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -1470,7 +1419,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -1481,7 +1430,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -1492,7 +1441,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -1503,7 +1452,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -1514,7 +1463,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -1525,7 +1474,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -1536,7 +1485,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -1547,7 +1496,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -1558,7 +1507,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -1569,7 +1518,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -1580,7 +1529,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -1591,7 +1540,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -1602,7 +1551,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -1613,7 +1562,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -1624,7 +1573,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -1635,7 +1584,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -1646,7 +1595,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -1657,7 +1606,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -1668,7 +1617,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -1679,7 +1628,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -1690,7 +1639,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -1701,7 +1650,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -1712,7 +1661,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -1723,7 +1672,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -1734,7 +1683,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -1745,7 +1694,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -1756,7 +1705,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -1767,7 +1716,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -1778,7 +1727,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -1789,7 +1738,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -1800,7 +1749,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -1811,7 +1760,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -1822,7 +1771,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -1833,7 +1782,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -1844,7 +1793,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -1855,7 +1804,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -1866,7 +1815,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -1877,7 +1826,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -1888,7 +1837,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>90</v>
       </c>
@@ -1899,7 +1848,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -1910,7 +1859,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>92</v>
       </c>
@@ -1921,7 +1870,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>93</v>
       </c>
@@ -1932,7 +1881,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>94</v>
       </c>
@@ -1943,7 +1892,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>95</v>
       </c>
@@ -1954,7 +1903,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -1965,7 +1914,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -1976,7 +1925,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>98</v>
       </c>
@@ -1987,7 +1936,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>99</v>
       </c>
@@ -1998,7 +1947,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>100</v>
       </c>
@@ -2009,7 +1958,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>101</v>
       </c>
@@ -2020,7 +1969,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>102</v>
       </c>
@@ -2031,7 +1980,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>103</v>
       </c>
@@ -2042,7 +1991,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>104</v>
       </c>
@@ -2053,7 +2002,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>105</v>
       </c>
@@ -2064,7 +2013,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>106</v>
       </c>
@@ -2075,7 +2024,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>107</v>
       </c>
@@ -2086,7 +2035,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>108</v>
       </c>
@@ -2097,7 +2046,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>109</v>
       </c>
@@ -2108,7 +2057,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>110</v>
       </c>
@@ -2119,7 +2068,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>111</v>
       </c>
@@ -2130,7 +2079,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>112</v>
       </c>
@@ -2141,7 +2090,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>113</v>
       </c>
@@ -2152,7 +2101,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>114</v>
       </c>
@@ -2163,7 +2112,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>115</v>
       </c>
@@ -2174,7 +2123,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>116</v>
       </c>
@@ -2185,7 +2134,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>117</v>
       </c>
@@ -2196,7 +2145,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>118</v>
       </c>
@@ -2207,7 +2156,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>119</v>
       </c>
@@ -2218,7 +2167,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>120</v>
       </c>
@@ -2229,7 +2178,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>121</v>
       </c>
@@ -2240,7 +2189,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>122</v>
       </c>
@@ -2251,7 +2200,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>123</v>
       </c>
@@ -2262,7 +2211,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>124</v>
       </c>
@@ -2273,7 +2222,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>125</v>
       </c>
@@ -2284,7 +2233,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>126</v>
       </c>
@@ -2295,7 +2244,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>127</v>
       </c>
@@ -2306,7 +2255,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>128</v>
       </c>
@@ -2317,7 +2266,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>129</v>
       </c>
@@ -2328,7 +2277,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>130</v>
       </c>
@@ -2339,7 +2288,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>131</v>
       </c>
@@ -2350,7 +2299,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>132</v>
       </c>
@@ -2361,7 +2310,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>133</v>
       </c>
@@ -2375,6 +2324,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>